--- a/New_Classification_Expected_Results_v.02.xlsx
+++ b/New_Classification_Expected_Results_v.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_5" sheetId="1" state="visible" r:id="rId2"/>
@@ -15017,8 +15017,8 @@
   </sheetPr>
   <dimension ref="A1:D514"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15090,7 +15090,7 @@
         <v>757</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15118,7 +15118,7 @@
         <v>761</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16952,7 +16952,7 @@
         <v>973</v>
       </c>
       <c r="D138" s="0" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17582,7 +17582,7 @@
         <v>1043</v>
       </c>
       <c r="D183" s="0" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -22231,8 +22231,8 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/New_Classification_Expected_Results_v.02.xlsx
+++ b/New_Classification_Expected_Results_v.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_5" sheetId="1" state="visible" r:id="rId2"/>
@@ -7531,8 +7531,8 @@
   </sheetPr>
   <dimension ref="A1:D533"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A487" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A487" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C500" activeCellId="0" sqref="C500"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -15017,7 +15017,7 @@
   </sheetPr>
   <dimension ref="A1:D514"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -22231,7 +22231,7 @@
   </sheetPr>
   <dimension ref="A1:D222"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -25363,7 +25363,7 @@
   </sheetPr>
   <dimension ref="A1:D218"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -28443,7 +28443,7 @@
   </sheetPr>
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>

--- a/New_Classification_Expected_Results_v.02.xlsx
+++ b/New_Classification_Expected_Results_v.02.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sample_5" sheetId="1" state="visible" r:id="rId2"/>
@@ -7534,7 +7534,7 @@
   </sheetPr>
   <dimension ref="A1:D533"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A338" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D348" activeCellId="0" sqref="D348"/>
     </sheetView>
   </sheetViews>
@@ -28451,7 +28451,7 @@
   </sheetPr>
   <dimension ref="A1:D252"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D15" activeCellId="0" sqref="D15"/>
     </sheetView>
   </sheetViews>
@@ -28626,7 +28626,7 @@
         <v>2131</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -28654,7 +28654,7 @@
         <v>2135</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -29802,7 +29802,7 @@
         <v>2274</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
